--- a/data/NBA_champs_python.xlsx
+++ b/data/NBA_champs_python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nehat312/GitHub/winning-composition/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6144583C-15CD-D54B-B6F1-66E1FDBE848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E34464D-BA9E-524E-BBCD-279D40470886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{77AC9A04-A3BE-9348-A69C-F1E2487AC2F7}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{CFAF2371-224F-CD4A-BD9C-5CA79A9E09DC}"/>
   </bookViews>
   <sheets>
     <sheet name="PYTHON" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>NE</author>
   </authors>
   <commentList>
-    <comment ref="BH454" authorId="0" shapeId="0" xr:uid="{3008BF25-9B2F-4042-8442-26C5DFD6AD7E}">
+    <comment ref="BH454" authorId="0" shapeId="0" xr:uid="{99FA04E0-CC7F-6540-B014-43DCC44451C3}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F468" authorId="0" shapeId="0" xr:uid="{E65A46E7-DDB8-F448-B39A-3F246F1C6DB7}">
+    <comment ref="F468" authorId="0" shapeId="0" xr:uid="{BFB7A5A1-5566-EB4E-A0D5-5430A3FDE7FE}">
       <text>
         <r>
           <rPr>
@@ -4318,18 +4318,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B960ECA1-21CB-0642-B9DF-78CBB5B10A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5A3D49-FA0F-1A4F-B94E-1D3399E2BBDF}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:BK528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L499" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O2" sqref="O2:O528"/>
       <selection pane="topRight" activeCell="O2" sqref="O2:O528"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2:O528"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="A1:AY528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
